--- a/results/NugetDemo_DiffReport.xlsx
+++ b/results/NugetDemo_DiffReport.xlsx
@@ -45,6 +45,21 @@
   </x:si>
   <x:si>
     <x:t>License</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nuget</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newtonsoft.Json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.0.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -471,14 +486,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E1"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.996339" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="7.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.853482" style="0" customWidth="1"/>
@@ -499,6 +514,23 @@
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/results/NugetDemo_DiffReport.xlsx
+++ b/results/NugetDemo_DiffReport.xlsx
@@ -41,25 +41,34 @@
     <x:t>LicenseUrl</x:t>
   </x:si>
   <x:si>
+    <x:t>nuget</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newtonsoft.Json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LICENSE_CHANGED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.0.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNKNOWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nuget.org/packages/Newtonsoft.Json/13.0.0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Version</x:t>
   </x:si>
   <x:si>
     <x:t>License</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nuget</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Newtonsoft.Json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.0.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -69,7 +78,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -82,6 +91,14 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:u val="single"/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -118,21 +135,28 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -430,20 +454,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H1"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.567768" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.139196" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.996339" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.853482" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.567768" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.853482" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="53.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8" s="1" customFormat="1">
@@ -472,7 +496,36 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="H2" r:id="rId6"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -495,8 +548,8 @@
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="15.996339" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="53.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" s="1" customFormat="1">
@@ -507,10 +560,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
@@ -518,22 +571,25 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
         <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="E2" r:id="rId7"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/results/NugetDemo_DiffReport.xlsx
+++ b/results/NugetDemo_DiffReport.xlsx
@@ -44,18 +44,45 @@
     <x:t>nuget</x:t>
   </x:si>
   <x:si>
+    <x:t>ClosedXML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNCHANGED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.105.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>ClosedXML.Parser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocumentFormat.OpenXml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocumentFormat.OpenXml.Framework</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExcelNumberFormat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Newtonsoft.Json</x:t>
   </x:si>
   <x:si>
-    <x:t>LICENSE_CHANGED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.0.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIT</x:t>
-  </x:si>
-  <x:si>
     <x:t>13.0.0</x:t>
   </x:si>
   <x:si>
@@ -63,6 +90,21 @@
   </x:si>
   <x:si>
     <x:t>https://www.nuget.org/packages/Newtonsoft.Json/13.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RBush.Signed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SixLabors.Fonts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apache-2.0</x:t>
   </x:si>
   <x:si>
     <x:t>Version</x:t>
@@ -454,16 +496,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="36.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="12.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.996339" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.853482" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
@@ -513,18 +554,200 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="s">
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="H2" r:id="rId6"/>
+    <x:hyperlink ref="H7" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -539,14 +762,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:E9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="36.853482" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.853482" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="53.996339" style="0" customWidth="1"/>
@@ -560,10 +783,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
@@ -577,18 +800,137 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E2" r:id="rId7"/>
+    <x:hyperlink ref="E7" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/results/NugetDemo_DiffReport.xlsx
+++ b/results/NugetDemo_DiffReport.xlsx
@@ -80,16 +80,40 @@
     <x:t>1.1.0</x:t>
   </x:si>
   <x:si>
+    <x:t>LibGit2Sharp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADDED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.31.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNKNOWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://aka.ms/deprecateLicenseUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LibGit2Sharp.NativeBinaries</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.0.323</x:t>
+  </x:si>
+  <x:si>
     <x:t>Newtonsoft.Json</x:t>
   </x:si>
   <x:si>
+    <x:t>REMOVED</x:t>
+  </x:si>
+  <x:si>
     <x:t>13.0.0</x:t>
   </x:si>
   <x:si>
-    <x:t>UNKNOWN</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.nuget.org/packages/Newtonsoft.Json/13.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.0.4</x:t>
   </x:si>
   <x:si>
     <x:t>RBush.Signed</x:t>
@@ -496,7 +520,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H9"/>
+  <x:dimension ref="A1:H12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -675,22 +699,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -698,25 +722,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -724,30 +748,110 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="H7" r:id="rId6"/>
+    <x:hyperlink ref="H8" r:id="rId7"/>
+    <x:hyperlink ref="H9" r:id="rId8"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -762,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E9"/>
+  <x:dimension ref="A1:E11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -772,7 +876,7 @@
     <x:col min="2" max="2" width="36.853482" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.853482" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="53.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="33.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" s="1" customFormat="1">
@@ -783,10 +887,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
@@ -885,13 +989,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -899,16 +1003,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -916,21 +1020,56 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E7" r:id="rId7"/>
+    <x:hyperlink ref="E7" r:id="rId9"/>
+    <x:hyperlink ref="E8" r:id="rId10"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/results/NugetDemo_DiffReport.xlsx
+++ b/results/NugetDemo_DiffReport.xlsx
@@ -83,9 +83,6 @@
     <x:t>LibGit2Sharp</x:t>
   </x:si>
   <x:si>
-    <x:t>ADDED</x:t>
-  </x:si>
-  <x:si>
     <x:t>0.31.0</x:t>
   </x:si>
   <x:si>
@@ -102,15 +99,6 @@
   </x:si>
   <x:si>
     <x:t>Newtonsoft.Json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REMOVED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.nuget.org/packages/Newtonsoft.Json/13.0.0</x:t>
   </x:si>
   <x:si>
     <x:t>13.0.4</x:t>
@@ -520,7 +508,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H12"/>
+  <x:dimension ref="A1:H11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -532,7 +520,7 @@
     <x:col min="5" max="5" width="11.996339" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.853482" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="53.996339" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8" s="1" customFormat="1">
@@ -699,22 +687,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="2" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -722,25 +710,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="H8" s="2" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -748,25 +736,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H9" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -774,19 +762,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>12</x:v>
@@ -800,50 +788,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -851,7 +813,6 @@
   <x:hyperlinks>
     <x:hyperlink ref="H7" r:id="rId6"/>
     <x:hyperlink ref="H8" r:id="rId7"/>
-    <x:hyperlink ref="H9" r:id="rId8"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -887,10 +848,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
@@ -989,13 +950,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="2" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E7" s="2" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -1003,16 +964,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1020,10 +981,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>12</x:v>
@@ -1037,10 +998,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>12</x:v>
@@ -1054,13 +1015,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>13</x:v>
@@ -1068,8 +1029,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E7" r:id="rId9"/>
-    <x:hyperlink ref="E8" r:id="rId10"/>
+    <x:hyperlink ref="E7" r:id="rId8"/>
+    <x:hyperlink ref="E8" r:id="rId9"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
